--- a/ejemplos_clase/planning/Songs_By_Sinatra_Like_Song.xlsx
+++ b/ejemplos_clase/planning/Songs_By_Sinatra_Like_Song.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmarPapa\repo\intro_automation\ejemplos_clase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oelia\Desktop\TERE\intro_automation-master\intro_automation-master\ejemplos_clase\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B5918BD-5205-46F7-BBC4-211E24DF57C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B2031-527C-49E8-A988-621CF91890D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -85,6 +85,20 @@
   </si>
   <si>
     <t>num_likes: x + 1</t>
+  </si>
+  <si>
+    <t>songsheader: text : Songs
+linkedsongs:  href="/songs/5"</t>
+  </si>
+  <si>
+    <t>songlink: linktext :Songs
+imagenSinatra: src="/images/sinatra.jpg"</t>
+  </si>
+  <si>
+    <t>songlikes: linktext : id="like", &lt;p&gt;This song has been liked 4 times&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>songlikes: action="/songs/3/like" ,id="like", &lt;p&gt;This song has been liked 4 times&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -472,7 +486,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -481,7 +495,7 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="26" width="10.7109375" customWidth="1"/>
@@ -539,6 +553,9 @@
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="75" customHeight="1">
       <c r="A8">
@@ -551,6 +568,9 @@
         <v>14</v>
       </c>
       <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
       <c r="A9">
@@ -565,6 +585,9 @@
       <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="A10">
@@ -578,6 +601,9 @@
       </c>
       <c r="D10" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
